--- a/2des/bcd/aula09/pedidos.xlsx
+++ b/2des/bcd/aula09/pedidos.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Desktop\aula09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\bcd\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20F11332-BE35-4A79-BC8E-9A2D40D95DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -19,7 +18,7 @@
     <sheet name="produtos" sheetId="3" r:id="rId4"/>
     <sheet name="entregadores" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -278,16 +277,16 @@
     <t>"),</t>
   </si>
   <si>
-    <t>insert into intens values</t>
-  </si>
-  <si>
     <t>),</t>
+  </si>
+  <si>
+    <t>insert into itens values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,10 +816,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2416,7 +2415,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2439,7 @@
         <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,14 +2452,14 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" t="str">
         <f>E2&amp;A2&amp;F2&amp;B2&amp;F2&amp;C2&amp;G2</f>
@@ -2484,7 +2483,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H30" si="0">E3&amp;A3&amp;F3&amp;B3&amp;F3&amp;C3&amp;G3</f>
@@ -2508,7 +2507,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -2532,7 +2531,7 @@
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -2556,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -2580,7 +2579,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2604,7 +2603,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -2628,7 +2627,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -2652,7 +2651,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2676,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2700,7 +2699,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2724,7 +2723,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -2748,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2772,7 +2771,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -2796,7 +2795,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -2820,7 +2819,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -2844,7 +2843,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -2868,7 +2867,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -2892,7 +2891,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -2916,7 +2915,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2940,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2964,7 +2963,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2988,7 +2987,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -3012,7 +3011,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -3036,7 +3035,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -3060,7 +3059,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -3084,7 +3083,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -3108,7 +3107,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -3132,7 +3131,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -3141,6 +3140,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3710,7 +3710,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B8">
+  <sortState ref="B2:B8">
     <sortCondition ref="B1:B8"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
